--- a/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>16.07863794697219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-13.18506232064853</v>
+        <v>-13.18506232064852</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.13663354796939</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.987770199807902</v>
+        <v>-7.926095220961667</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.22040685559843</v>
+        <v>9.501936042494428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.8419855388752</v>
+        <v>-22.53920583590874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.596200112679035</v>
+        <v>-4.382734546604964</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.595412413844875</v>
+        <v>7.432487376245289</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-22.15061143510436</v>
+        <v>-21.49396864571841</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.928961935699772</v>
+        <v>-4.912392976349957</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.26897773449122</v>
+        <v>10.85387639372262</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-19.78150182156372</v>
+        <v>-19.7410302239734</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.471536031690609</v>
+        <v>4.286697130179485</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.82519971917334</v>
+        <v>21.82358059809268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.132986503473013</v>
+        <v>-4.267369740258659</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.092923990293541</v>
+        <v>7.737269085831105</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.64943033381304</v>
+        <v>19.1508235718839</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-4.885945030767845</v>
+        <v>-5.034394865367472</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.872965858105037</v>
+        <v>4.531010619269195</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.30866764079635</v>
+        <v>19.56260614219275</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-7.13618168409479</v>
+        <v>-7.344232825760473</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2732331017245595</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2240609861472024</v>
+        <v>-0.2240609861472021</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.01861486098343987</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.130485586023614</v>
+        <v>-0.1282465132825202</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1525363845895118</v>
+        <v>0.1515971234040774</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3622040962589566</v>
+        <v>-0.3695697655272396</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08437446176629414</v>
+        <v>-0.06850628234221555</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1166275188406669</v>
+        <v>0.1152989682992949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3435997493286994</v>
+        <v>-0.341500103965245</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07950599181667259</v>
+        <v>-0.07935020133066154</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1636175320206826</v>
+        <v>0.1715628740224197</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3206844355173799</v>
+        <v>-0.3196755043439998</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.09857897539778898</v>
+        <v>0.07725240797731953</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3952169499884853</v>
+        <v>0.3965709670006774</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.07329005519046851</v>
+        <v>-0.07278142118768395</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1264846316536426</v>
+        <v>0.1349092256612346</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3409977346985855</v>
+        <v>0.3301141858501713</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.07579471614910009</v>
+        <v>-0.08230919238461613</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06556002333606772</v>
+        <v>0.077477464315919</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3339427032669992</v>
+        <v>0.3361154378809589</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1229623356882798</v>
+        <v>-0.1254382061583063</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>14.17008280695008</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.600680282272871</v>
+        <v>-2.600680282272883</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.549949693624521</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.016283837032921</v>
+        <v>-5.119223966027769</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.991636389708139</v>
+        <v>8.829805984822706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.642941959912916</v>
+        <v>-10.45686479745842</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.599432773662087</v>
+        <v>-1.404111251817351</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.404393488496255</v>
+        <v>6.772540637963837</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-16.38793846601373</v>
+        <v>-16.97373341579063</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.300190080667637</v>
+        <v>-2.113763732718215</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.894383943885805</v>
+        <v>9.52787880251636</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-10.69848834695193</v>
+        <v>-11.31348872803125</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.211461568129461</v>
+        <v>4.962353692598464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.89099383923435</v>
+        <v>19.52224491130714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.91235578341546</v>
+        <v>3.58288154422657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.981144075667123</v>
+        <v>9.194765469471013</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.12542303974172</v>
+        <v>17.24482782832711</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.689381784238346</v>
+        <v>-4.220606968980722</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.262708563182634</v>
+        <v>5.262875179707755</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.06739922747918</v>
+        <v>16.68097483115497</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.763156905199699</v>
+        <v>-1.688409132544671</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.224538740929165</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.04121030794925497</v>
+        <v>-0.04121030794925515</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05373696422698067</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07673272616935441</v>
+        <v>-0.07669016252528343</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1395106564515388</v>
+        <v>0.1339483147180748</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1459387063466345</v>
+        <v>-0.1601159755761489</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02269609329739913</v>
+        <v>-0.02052201794197564</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09373373451603534</v>
+        <v>0.1010822956945974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2393543471620659</v>
+        <v>-0.2437101574303754</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03463776420214941</v>
+        <v>-0.03218999934898494</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1491343514579457</v>
+        <v>0.1430020505029433</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1619548762981284</v>
+        <v>-0.1705840704923234</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0865144533642395</v>
+        <v>0.08192601137644061</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3116749847345681</v>
+        <v>0.3282006783987469</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06373301508691122</v>
+        <v>0.05508162054670171</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1415781805852291</v>
+        <v>0.1472446716116016</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.268732911217277</v>
+        <v>0.2763216811796056</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05700396967154907</v>
+        <v>-0.06802971487078303</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08449700857668982</v>
+        <v>0.08419928127065672</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2737461794573891</v>
+        <v>0.2673500299481527</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.02432202087389135</v>
+        <v>-0.02665417248737538</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>9.416300249766529</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-7.278609704144746</v>
+        <v>-7.278609704144734</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.536537443178221</v>
+        <v>-5.6180420367155</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.191284469138389</v>
+        <v>3.783100439312309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.00237521303985</v>
+        <v>-12.10427432584805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3084044515782919</v>
+        <v>-1.017348273525611</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.176899869913975</v>
+        <v>4.679599402721751</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-13.2579637288799</v>
+        <v>-13.25798909351235</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.801817195544744</v>
+        <v>-1.327374936079539</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.802537386500246</v>
+        <v>6.154006622838575</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.81767145076701</v>
+        <v>-11.14948940393448</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.506978841416417</v>
+        <v>5.115105826798586</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.3690168196144</v>
+        <v>13.7081684483622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.9964516818297209</v>
+        <v>-0.5303264274768917</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.317208387280909</v>
+        <v>9.292083030034526</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.47276139126649</v>
+        <v>14.29081794448866</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.499294516271993</v>
+        <v>-3.226228385746958</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.642437641666299</v>
+        <v>5.658182868533582</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.79898881013156</v>
+        <v>12.66968320498544</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.598463894680433</v>
+        <v>-3.926627364399201</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1355559430224519</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.104782003139946</v>
+        <v>-0.1047820031399458</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07806553770736152</v>
+        <v>-0.07874752817226953</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.05826674435817726</v>
+        <v>0.05216330859776037</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.167656305860343</v>
+        <v>-0.169810344759309</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.004076829271680853</v>
+        <v>-0.0147034518976621</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07154230579699071</v>
+        <v>0.06361959440929936</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.184183951155997</v>
+        <v>-0.1805752094146166</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02480047903808843</v>
+        <v>-0.01821074387963263</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08155704211432865</v>
+        <v>0.08758172649619468</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.151312216298557</v>
+        <v>-0.1558756530478445</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08295164839118355</v>
+        <v>0.07726459056899264</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2153470118884536</v>
+        <v>0.2067277025582224</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.01608472280127246</v>
+        <v>-0.00820083298159518</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1406781612729346</v>
+        <v>0.1370210992521311</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2159980322548644</v>
+        <v>0.2119289404357933</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05145643080077528</v>
+        <v>-0.04777537623525963</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08298068602779705</v>
+        <v>0.08445502212138421</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1892409674683815</v>
+        <v>0.1881033041039991</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05215360822844053</v>
+        <v>-0.05790304605507896</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>10.05853431846166</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-9.082986461839649</v>
+        <v>-9.08298646183966</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>8.747334048220756</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.041531802798653</v>
+        <v>-7.699668219639855</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.54200771360937</v>
+        <v>4.845805216314217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.87679432187528</v>
+        <v>-14.61508532416157</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.352407517623454</v>
+        <v>3.435275777742063</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>8.593398641937101</v>
+        <v>9.184915408880929</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-10.37841096415717</v>
+        <v>-10.00126384893764</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6536315119082332</v>
+        <v>-0.4985622016944012</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.433048497034964</v>
+        <v>8.512795831812928</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.96109254142188</v>
+        <v>-11.12504208464854</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.337967906663117</v>
+        <v>3.663729567498206</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.51942086385058</v>
+        <v>15.3463677227314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.351829155397277</v>
+        <v>-3.374116722956266</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.32733067004637</v>
+        <v>14.29894620168365</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.57479718558676</v>
+        <v>19.19665351290973</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.2455099190971232</v>
+        <v>0.1593712304852801</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.57299693271656</v>
+        <v>7.410208243394282</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.10839528420055</v>
+        <v>15.36415266489903</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.483155447756297</v>
+        <v>-3.663270179374269</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.141726988265835</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1279813017422567</v>
+        <v>-0.1279813017422568</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1252350726166132</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1088959095795263</v>
+        <v>-0.1051630462613552</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.06272872520837004</v>
+        <v>0.06750102561229959</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2010537247113293</v>
+        <v>-0.194143900454675</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04668182174744104</v>
+        <v>0.04719106966575554</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1169294286196833</v>
+        <v>0.1251357915162864</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1430605458421484</v>
+        <v>-0.1370107805120291</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.009216091008620971</v>
+        <v>-0.00680614905519396</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1150317054987713</v>
+        <v>0.116758376608231</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1530355503381738</v>
+        <v>-0.1521307774781519</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04835249992429643</v>
+        <v>0.05524181853705823</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2273318795053152</v>
+        <v>0.228963874370518</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.05013627010948202</v>
+        <v>-0.04859885012437024</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2145293844164893</v>
+        <v>0.2152070820777451</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2793521442933012</v>
+        <v>0.2879816824320112</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.003928017365473365</v>
+        <v>0.002323017473300334</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1102305745569586</v>
+        <v>0.1082915991502492</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2347882296984643</v>
+        <v>0.225608574819524</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.05164496520267995</v>
+        <v>-0.05345801795722453</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>7.243026028233412</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.84471968307899</v>
+        <v>-4.844719683079002</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-4.688802923380164</v>
@@ -1520,7 +1520,7 @@
         <v>9.004071662464741</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.409353227879841</v>
+        <v>-3.40935322787983</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-13.51767555676333</v>
+        <v>-13.09607169751632</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.911566835837724</v>
+        <v>5.264390457187634</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.294102858697409</v>
+        <v>-8.056356006167785</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-9.204570801037038</v>
+        <v>-9.137045635083004</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.713519316284582</v>
+        <v>2.013797648526438</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.15057409321958</v>
+        <v>-9.553774366416169</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-8.908516238505161</v>
+        <v>-9.382616148489159</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.736185437215071</v>
+        <v>4.454939491618988</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.747007572786385</v>
+        <v>-7.095217323843518</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.665229779128195</v>
+        <v>0.318023687068534</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.57955124416997</v>
+        <v>16.84355035480008</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.545757859502594</v>
+        <v>3.839716341898545</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.202410680601607</v>
+        <v>2.387542293289211</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.48775894209129</v>
+        <v>12.8852477296386</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1083965655122319</v>
+        <v>0.4491528693432568</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.09366860204392717</v>
+        <v>-0.3125968112713457</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.96599585361561</v>
+        <v>13.13627039819203</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5701517274130927</v>
+        <v>0.5583799981363455</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.09448166337265659</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.0631969528270763</v>
+        <v>-0.06319695282707644</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.06369496273216024</v>
@@ -1625,7 +1625,7 @@
         <v>0.1223156567572144</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.04631430033191217</v>
+        <v>-0.04631430033191202</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1847823354660938</v>
+        <v>-0.1776046529060376</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.05377983310951593</v>
+        <v>0.07081075629731559</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09929046797581435</v>
+        <v>-0.1082543702010707</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1162028673564193</v>
+        <v>-0.1143813138849247</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02175000717288967</v>
+        <v>0.02526452902759331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1263267248849847</v>
+        <v>-0.1182180316950716</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1163825566684381</v>
+        <v>-0.1236139560070609</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.06211432741558923</v>
+        <v>0.05914407837375828</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.09997486150695406</v>
+        <v>-0.0938383190518523</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01082847521528347</v>
+        <v>0.005353508857576258</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2516623706605024</v>
+        <v>0.2534548718478096</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06925363280620299</v>
+        <v>0.05725276216122972</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.04343248704098604</v>
+        <v>0.03437364146745515</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1709939952752614</v>
+        <v>0.1760064325155231</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.00133061565182117</v>
+        <v>0.007240736943745328</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.002427254830386368</v>
+        <v>-0.004171061015244002</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1819724327259918</v>
+        <v>0.1857691102369274</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.008383131943263998</v>
+        <v>0.006971402969829519</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>6.347533463160604</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-11.24272622700438</v>
+        <v>-11.2427262270044</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.75819727096064</v>
+        <v>-10.24930591772611</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.613568432424764</v>
+        <v>-5.64047701588167</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-16.99473992883484</v>
+        <v>-16.8410163814941</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.361160262071441</v>
+        <v>-6.917102027308532</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>5.792477134289715</v>
+        <v>6.228952067733584</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-17.11910510612712</v>
+        <v>-16.47709786489128</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-7.103796175836265</v>
+        <v>-6.92664182734785</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.905629352205599</v>
+        <v>2.027882026308373</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-14.83673015480024</v>
+        <v>-15.47496464148926</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.243909032584601</v>
+        <v>3.783579811497781</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.495776659537146</v>
+        <v>7.856661457315983</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-4.857721537486412</v>
+        <v>-4.653392780349112</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.172528589744072</v>
+        <v>5.096145243065511</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>16.65016356662597</v>
+        <v>16.61083414425547</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-6.023011264529143</v>
+        <v>-6.238648339258793</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.464995308183559</v>
+        <v>2.177777079089765</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.81630891510862</v>
+        <v>10.42602902393202</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-6.968457413492778</v>
+        <v>-7.153982923087526</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.08194956596210767</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1451487479161797</v>
+        <v>-0.1451487479161799</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1345146333799069</v>
+        <v>-0.1266850553999219</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.06937164524090608</v>
+        <v>-0.06968201517079395</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2127013753192663</v>
+        <v>-0.2091100124516162</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.0921498304276282</v>
+        <v>-0.0852670321697208</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.07366949605388411</v>
+        <v>0.07707201648431262</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2114015989177076</v>
+        <v>-0.2034321013772313</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.08980153362420588</v>
+        <v>-0.08722972419134566</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.02426417035367138</v>
+        <v>0.02470562966096213</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1884308859502043</v>
+        <v>-0.1937092841489297</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.04254309853720694</v>
+        <v>0.05220540217190922</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1013821654201125</v>
+        <v>0.1058076786259925</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.066512589200941</v>
+        <v>-0.06337435011340088</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.06987502795264573</v>
+        <v>0.06900726809024454</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2297675484324288</v>
+        <v>0.2243932783613561</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.08334782953872523</v>
+        <v>-0.08289700707637492</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03234063984643071</v>
+        <v>0.0295541416121044</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1435143437390754</v>
+        <v>0.1396808456549118</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.09436545926242847</v>
+        <v>-0.09587226710776656</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>5.092204387066602</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-8.041236902791349</v>
+        <v>-8.041236902791338</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-4.48545561512641</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-12.45071284190921</v>
+        <v>-11.49992956161597</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.069865788995142</v>
+        <v>-1.299099051360774</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-15.13766941669977</v>
+        <v>-14.39706963418917</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-10.53185234353931</v>
+        <v>-10.62939040942706</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.2985521799818255</v>
+        <v>-0.3423618598829404</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-12.05756699810704</v>
+        <v>-12.31183533850978</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-9.594119478233866</v>
+        <v>-8.992026069491258</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.01240632243535</v>
+        <v>1.015376758091198</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-11.49057000406783</v>
+        <v>-11.78566980242858</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.717453389760487</v>
+        <v>3.874059846276971</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>12.9147053555369</v>
+        <v>12.2358028136154</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.056411498352848</v>
+        <v>-0.4090779890836094</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.884170237726761</v>
+        <v>1.716304575309861</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>11.10786045093208</v>
+        <v>11.62217545130226</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.343088526233042</v>
+        <v>-1.670248515918191</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.7801987303306136</v>
+        <v>0.6006373748219045</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.825438802736588</v>
+        <v>10.20611924150686</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-3.173990038540992</v>
+        <v>-3.376364960121778</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.06424066329178635</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1014441591609566</v>
+        <v>-0.1014441591609565</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.05500940819682427</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1522968452844649</v>
+        <v>-0.1387733773792213</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0242528237918991</v>
+        <v>-0.01589934570360515</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1840521473126456</v>
+        <v>-0.1740835730353525</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1249872336369231</v>
+        <v>-0.1262683660154266</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.00371819747511592</v>
+        <v>-0.004510780847365063</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1410118780889171</v>
+        <v>-0.1443309468687253</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1157479112943797</v>
+        <v>-0.1094205908481208</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.01195312441293249</v>
+        <v>0.01206368494092423</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1375303450189469</v>
+        <v>-0.1405459596056489</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.04893655267563166</v>
+        <v>0.049661318317257</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1721558173593145</v>
+        <v>0.1649432190762833</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.01491120799049148</v>
+        <v>-0.005915878143913864</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.02404776270229101</v>
+        <v>0.02132557267297878</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1428228199484908</v>
+        <v>0.1500613872028609</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.01692322919588946</v>
+        <v>-0.02156572564926961</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01015080464023719</v>
+        <v>0.007249960745019859</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1269023736979372</v>
+        <v>0.1318294169996546</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.04115541361764444</v>
+        <v>-0.04287131094781151</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.930734560540388</v>
+        <v>-3.897019351993991</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>8.907794026909242</v>
+        <v>9.01404383759829</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-7.979794526592039</v>
+        <v>-8.073558254649287</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.1949651113397713</v>
+        <v>0.3463161984312292</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>9.573944076833195</v>
+        <v>9.430238321696701</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-8.996860262533568</v>
+        <v>-8.901096419214143</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.191643493503145</v>
+        <v>-1.037985617678006</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>9.837965980334364</v>
+        <v>9.684324154493362</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-7.968050552101142</v>
+        <v>-7.805043202361778</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.8606182257586711</v>
+        <v>0.8788386186780563</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>13.35661670305916</v>
+        <v>13.43204544587697</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.111154505290381</v>
+        <v>-3.010087722755606</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.556359740241855</v>
+        <v>4.628423864136214</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>13.60141303338563</v>
+        <v>13.52617074209966</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-4.73369372147045</v>
+        <v>-4.764323929716949</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.131289097504679</v>
+        <v>2.143640002716755</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>12.84059042017081</v>
+        <v>12.62225507358665</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-4.522537784335727</v>
+        <v>-4.576484264225888</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.05683740937345626</v>
+        <v>-0.05670201413608784</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1279381170184775</v>
+        <v>0.129664895094161</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1154652942117462</v>
+        <v>-0.1167500505509168</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.002701030096722876</v>
+        <v>0.004860020895358908</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1332370632292914</v>
+        <v>0.1298612083905955</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1250555205067602</v>
+        <v>-0.1239381134202546</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.01701591025932398</v>
+        <v>-0.01475998423762618</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1407001531814254</v>
+        <v>0.1373471055748382</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1128505249907149</v>
+        <v>-0.1112250742634057</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.01309786628452442</v>
+        <v>0.01320057945469277</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2000390162849909</v>
+        <v>0.2002211572668504</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.04651801388099791</v>
+        <v>-0.04515742590701512</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.06531138413887577</v>
+        <v>0.06669301300727158</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1945238534021292</v>
+        <v>0.1938896633692267</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.06854435619713073</v>
+        <v>-0.06816194220628935</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.03108423749035621</v>
+        <v>0.03133276413900397</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1882012475877057</v>
+        <v>0.183887819615379</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.06588035537826466</v>
+        <v>-0.06677091283693361</v>
       </c>
     </row>
     <row r="52">
